--- a/rill-analysis/rill-analysis-report-core/src/test/resources/nu/com/rill/analysis/report/excel/template.xlsx
+++ b/rill-analysis/rill-analysis-report-core/src/test/resources/nu/com/rill/analysis/report/excel/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="_settings" sheetId="2" r:id="rId1"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://10.81.21.140:8280/saiku/rest/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reload</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +107,10 @@
 {Hierarchize({[Measures].[Show Cnt], [Measures].[Click Cnt], [Measures].[Ask Cnt], [Measures].[Access Cnt], [Measures].[Order Cnt]})} ON COLUMNS,
 {Hierarchize({[Time].[2011]})} ON ROWS 
 FROM [TF_CUBE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.81.21.140:8280/rill-analysis-web/rest/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,12 +574,12 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.25" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
@@ -590,10 +590,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
@@ -645,7 +645,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -656,7 +656,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="14.25" thickBot="1">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" thickBot="1">
